--- a/example.xlsx
+++ b/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Demo</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -125,13 +128,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>20.0</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -23,37 +23,34 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Aakash</t>
+    <t>a</t>
   </si>
   <si>
     <t>FS001</t>
   </si>
   <si>
-    <t>Kishore</t>
+    <t>b</t>
   </si>
   <si>
     <t>FS002</t>
   </si>
   <si>
-    <t>FS003</t>
+    <t>c</t>
   </si>
   <si>
-    <t>Sriram</t>
+    <t>FS003</t>
   </si>
   <si>
     <t>FS004</t>
   </si>
   <si>
-    <t>Karthi</t>
+    <t>d</t>
   </si>
   <si>
     <t>FS005</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Update</t>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,26 +112,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="n" s="0">
-        <v>98.0</v>
+      <c r="C5" t="n">
+        <v>300.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>13</v>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>200.0</v>
+      <c r="C6" t="n">
+        <v>39.0</v>
       </c>
     </row>
   </sheetData>
